--- a/biology/Zoologie/Euscorpius_tauricus/Euscorpius_tauricus.xlsx
+++ b/biology/Zoologie/Euscorpius_tauricus/Euscorpius_tauricus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euscorpius tauricus est une espèce de scorpions de la famille des Euscorpiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Ukraine en Crimée, en Turquie dans la province de Bursa et aux îles des Princes et en Grèce aux Cyclades sur Antiparos, Paros, Sifnos et Naxos[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Ukraine en Crimée, en Turquie dans la province de Bursa et aux îles des Princes et en Grèce aux Cyclades sur Antiparos, Paros, Sifnos et Naxos.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle décrite par Tropea, Fet, Parmakelis, Kotsakiozi et Stathi en 2017 mesure 31,22 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle décrite par Tropea, Fet, Parmakelis, Kotsakiozi et Stathi en 2017 mesure 31,22 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Scorpius tauricus par Koch en 1837. Elle est considérée comme une sous-espèce d'Euscorpius carpathicus par Caporiacco en 1950[2]. Elle est élevée au rang d'espèce par Fet en 2002[3].
-Euscorpius carpathicus aegaeus[2] et Euscorpius rahsenae[4] sont placées en synonymie par Tropea, Fet, Parmakelis, Kotsakiozi et Stathi en 2017[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Scorpius tauricus par Koch en 1837. Elle est considérée comme une sous-espèce d'Euscorpius carpathicus par Caporiacco en 1950. Elle est élevée au rang d'espèce par Fet en 2002.
+Euscorpius carpathicus aegaeus et Euscorpius rahsenae sont placées en synonymie par Tropea, Fet, Parmakelis, Kotsakiozi et Stathi en 2017.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la Tauride.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>C. L. Koch, 1837 : Übersicht des Arachnidensystems. Nürnberg, vol. 1, p. 1-39 (texte intégral).</t>
         </is>
